--- a/recursos/Videoclub.xlsx
+++ b/recursos/Videoclub.xlsx
@@ -19198,7 +19198,7 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>oppenheimer</t>
+          <t>Oppenheimer</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
@@ -19206,8 +19206,16 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr"/>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>MKV</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>MULTIMEDIA</t>
+        </is>
+      </c>
       <c r="E772" t="inlineStr"/>
       <c r="F772" t="inlineStr">
         <is>
